--- a/PIB_Nacional.xlsx
+++ b/PIB_Nacional.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129A2F52-ED21-4051-BFDE-0CAFD07AEB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB749230-6353-41AC-9EF3-91CC0E25DCDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
-    <sheet name="C_11" sheetId="1" r:id="rId1"/>
+    <sheet name="C_1.1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Periodo</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Dirección General de Planeación</t>
   </si>
   <si>
-    <t>(Millones de pesos anulizados  aprecios de 2018)</t>
-  </si>
-  <si>
     <t>Producto Interno Bruto Nacional</t>
   </si>
   <si>
@@ -60,13 +57,94 @@
   </si>
   <si>
     <t>Nota: Cifras actualizadas a pecios de 2018=100.</t>
+  </si>
+  <si>
+    <t>(Millones de pesos anulizados  a precios de 2018)</t>
+  </si>
+  <si>
+    <t>Trim-I-2024</t>
+  </si>
+  <si>
+    <t>Trim-II-2023</t>
+  </si>
+  <si>
+    <t>Trim-IV-2023</t>
+  </si>
+  <si>
+    <t>Trim-III-2023</t>
+  </si>
+  <si>
+    <t>Trim-I-2023</t>
+  </si>
+  <si>
+    <t>Trim-IV-2022</t>
+  </si>
+  <si>
+    <t>Trim-III-2022</t>
+  </si>
+  <si>
+    <t>Trim-II-2022</t>
+  </si>
+  <si>
+    <t>Trim-I-2022</t>
+  </si>
+  <si>
+    <t>Trim-IV-2021</t>
+  </si>
+  <si>
+    <t>Trim-III-2021</t>
+  </si>
+  <si>
+    <t>Trim-II-2021</t>
+  </si>
+  <si>
+    <t>Trim-I-2021</t>
+  </si>
+  <si>
+    <t>Trim-IV-2020</t>
+  </si>
+  <si>
+    <t>Trim-III-2020</t>
+  </si>
+  <si>
+    <t>Trim-II-2020</t>
+  </si>
+  <si>
+    <t>Trim-I-2020</t>
+  </si>
+  <si>
+    <t>Trim-IV-2019</t>
+  </si>
+  <si>
+    <t>Trim-III-2019</t>
+  </si>
+  <si>
+    <t>Trim-II-2019</t>
+  </si>
+  <si>
+    <t>Trim-I-2019</t>
+  </si>
+  <si>
+    <t>Trim-IV-2018</t>
+  </si>
+  <si>
+    <t>Trim-III-2018</t>
+  </si>
+  <si>
+    <t>Trim-II-2018</t>
+  </si>
+  <si>
+    <t>Trim-I-2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +164,12 @@
       <color theme="1"/>
       <name val="Montserrat"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Montserrat Medium"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -114,11 +198,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="17" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -136,6 +217,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -157,7 +246,7 @@
         <name val="Montserrat"/>
         <scheme val="major"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
       <font>
@@ -232,8 +321,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{50FAB962-9B31-4298-ABA3-8A7B8B9C9F5B}" name="Tabla3" displayName="Tabla3" ref="B4:C33" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="B4:C33" xr:uid="{50FAB962-9B31-4298-ABA3-8A7B8B9C9F5B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{50FAB962-9B31-4298-ABA3-8A7B8B9C9F5B}" name="Tabla3" displayName="Tabla3" ref="B4:C29" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="B4:C29" xr:uid="{50FAB962-9B31-4298-ABA3-8A7B8B9C9F5B}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{3DB7D63A-D45B-425D-983D-987580C9FAAE}" name="Periodo" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{06D80863-A3AD-4C22-85BC-05BA2DFB088C}" name="Pruducto Interno Bruto" dataDxfId="0"/>
@@ -465,295 +554,268 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:E37"/>
+  <dimension ref="B2:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" customWidth="1"/>
     <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B2" s="7" t="s">
-        <v>5</v>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B3" s="6" t="s">
-        <v>4</v>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B5" s="1">
-        <v>45352</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="10">
         <v>24688768.486000001</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B6" s="2">
-        <v>45261</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="10">
         <v>25589859.000999998</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B7" s="1">
-        <v>45170</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="11">
         <v>25107696.155999999</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B8" s="2">
-        <v>45078</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="B8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="11">
         <v>25182649.592999998</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B9" s="1">
-        <v>44986</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="B9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="11">
         <v>24299159.754000001</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B10" s="2">
-        <v>44896</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="11">
         <v>25011647.543000001</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B11" s="1">
-        <v>44805</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="B11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="11">
         <v>24284767.879999999</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B12" s="2">
-        <v>44713</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="B12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="11">
         <v>24320625.657000002</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B13" s="1">
-        <v>44621</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="B13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="11">
         <v>23456004.254000001</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B14" s="2">
-        <v>44531</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="B14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="11">
         <v>23957834.967</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B15" s="1">
-        <v>44440</v>
-      </c>
-      <c r="C15" s="4">
+      <c r="B15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="11">
         <v>23205162.859000001</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B16" s="2">
-        <v>44348</v>
-      </c>
-      <c r="C16" s="4">
+      <c r="B16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="11">
         <v>23619437.004000001</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B17" s="1">
-        <v>44256</v>
-      </c>
-      <c r="C17" s="4">
+      <c r="B17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="11">
         <v>22836889.620000001</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B18" s="2">
-        <v>44166</v>
-      </c>
-      <c r="C18" s="4">
+      <c r="B18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="11">
         <v>23502642.418000001</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="1">
-        <v>44075</v>
-      </c>
-      <c r="C19" s="4">
+      <c r="B19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="11">
         <v>22072323.524</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B20" s="2">
-        <v>43983</v>
-      </c>
-      <c r="C20" s="4">
+      <c r="B20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="11">
         <v>19253473.965</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B21" s="1">
-        <v>43891</v>
-      </c>
-      <c r="C21" s="4">
+      <c r="B21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="11">
         <v>23451299.144000001</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B22" s="2">
-        <v>43800</v>
-      </c>
-      <c r="C22" s="4">
+      <c r="B22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="11">
         <v>24357268.304000001</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B23" s="1">
-        <v>43709</v>
-      </c>
-      <c r="C23" s="4">
+      <c r="B23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="11">
         <v>24024913.491</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B24" s="2">
-        <v>43617</v>
-      </c>
-      <c r="C24" s="4">
+      <c r="B24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="11">
         <v>24154482.009</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B25" s="1">
-        <v>43525</v>
-      </c>
-      <c r="C25" s="4">
+      <c r="B25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="11">
         <v>23790259.728</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B26" s="2">
-        <v>43435</v>
-      </c>
-      <c r="C26" s="4">
+      <c r="B26" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="11">
         <v>24605114.693</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B27" s="1">
-        <v>43344</v>
-      </c>
-      <c r="C27" s="4">
+      <c r="B27" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="11">
         <v>24137286.447000001</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B28" s="2">
-        <v>43252</v>
-      </c>
-      <c r="C28" s="4">
+      <c r="B28" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="11">
         <v>24395810.578000002</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B29" s="1">
-        <v>43160</v>
-      </c>
-      <c r="C29" s="4">
+      <c r="B29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="11">
         <v>23568469.787</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B30" s="2">
-        <v>43070</v>
-      </c>
-      <c r="C30" s="4">
-        <v>24328804.256999999</v>
-      </c>
+      <c r="B30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1"/>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B31" s="1">
-        <v>42979</v>
-      </c>
-      <c r="C31" s="4">
-        <v>23491268.088</v>
+      <c r="B31" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B32" s="2">
-        <v>42887</v>
-      </c>
-      <c r="C32" s="4">
-        <v>23710308.476</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B33" s="1">
-        <v>42795</v>
-      </c>
-      <c r="C33" s="4">
-        <v>23306048.432999998</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B34" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C36" s="10" t="s">
+      <c r="C32" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C37" s="10" t="s">
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C33" s="7" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="35" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/PIB_Nacional.xlsx
+++ b/PIB_Nacional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB749230-6353-41AC-9EF3-91CC0E25DCDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4F634A-DC94-4066-86E8-C45E7FEB17C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -144,7 +144,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,8 +171,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Montserrat Medium"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Montserrat Medium"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,11 +196,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -194,11 +214,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -211,103 +287,30 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="8" tint="0.79998168889431442"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -318,17 +321,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{50FAB962-9B31-4298-ABA3-8A7B8B9C9F5B}" name="Tabla3" displayName="Tabla3" ref="B4:C29" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="B4:C29" xr:uid="{50FAB962-9B31-4298-ABA3-8A7B8B9C9F5B}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3DB7D63A-D45B-425D-983D-987580C9FAAE}" name="Periodo" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{06D80863-A3AD-4C22-85BC-05BA2DFB088C}" name="Pruducto Interno Bruto" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -557,7 +549,7 @@
   <dimension ref="B2:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -578,210 +570,210 @@
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
+      <c r="B4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="13" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="7">
         <v>24688768.486000001</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>25589859.000999998</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="7">
         <v>25107696.155999999</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="8">
         <v>25182649.592999998</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="7">
         <v>24299159.754000001</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="8">
         <v>25011647.543000001</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="7">
         <v>24284767.879999999</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="8">
         <v>24320625.657000002</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="7">
         <v>23456004.254000001</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="8">
         <v>23957834.967</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="7">
         <v>23205162.859000001</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="8">
         <v>23619437.004000001</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="7">
         <v>22836889.620000001</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="8">
         <v>23502642.418000001</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="7">
         <v>22072323.524</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="8">
         <v>19253473.965</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="7">
         <v>23451299.144000001</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="8">
         <v>24357268.304000001</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="7">
         <v>24024913.491</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="8">
         <v>24154482.009</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="7">
         <v>23790259.728</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="8">
         <v>24605114.693</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="7">
         <v>24137286.447000001</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="8">
         <v>24395810.578000002</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="9">
         <v>23568469.787</v>
       </c>
     </row>
@@ -797,12 +789,12 @@
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -817,8 +809,5 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/PIB_Nacional.xlsx
+++ b/PIB_Nacional.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Indicadores Económicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4F634A-DC94-4066-86E8-C45E7FEB17C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEEFE13-9005-4485-8044-483EA1587024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_1.1" sheetId="1" r:id="rId1"/>
@@ -36,18 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>Periodo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Pruducto Interno Bruto</t>
-  </si>
-  <si>
-    <t>Ultima actualización: mayo 2024</t>
-  </si>
-  <si>
-    <t>Dirección General de Planeación</t>
   </si>
   <si>
     <t>Producto Interno Bruto Nacional</t>
@@ -62,79 +53,13 @@
     <t>(Millones de pesos anulizados  a precios de 2018)</t>
   </si>
   <si>
-    <t>Trim-I-2024</t>
+    <t>Trimestre</t>
   </si>
   <si>
-    <t>Trim-II-2023</t>
+    <t>Año</t>
   </si>
   <si>
-    <t>Trim-IV-2023</t>
-  </si>
-  <si>
-    <t>Trim-III-2023</t>
-  </si>
-  <si>
-    <t>Trim-I-2023</t>
-  </si>
-  <si>
-    <t>Trim-IV-2022</t>
-  </si>
-  <si>
-    <t>Trim-III-2022</t>
-  </si>
-  <si>
-    <t>Trim-II-2022</t>
-  </si>
-  <si>
-    <t>Trim-I-2022</t>
-  </si>
-  <si>
-    <t>Trim-IV-2021</t>
-  </si>
-  <si>
-    <t>Trim-III-2021</t>
-  </si>
-  <si>
-    <t>Trim-II-2021</t>
-  </si>
-  <si>
-    <t>Trim-I-2021</t>
-  </si>
-  <si>
-    <t>Trim-IV-2020</t>
-  </si>
-  <si>
-    <t>Trim-III-2020</t>
-  </si>
-  <si>
-    <t>Trim-II-2020</t>
-  </si>
-  <si>
-    <t>Trim-I-2020</t>
-  </si>
-  <si>
-    <t>Trim-IV-2019</t>
-  </si>
-  <si>
-    <t>Trim-III-2019</t>
-  </si>
-  <si>
-    <t>Trim-II-2019</t>
-  </si>
-  <si>
-    <t>Trim-I-2019</t>
-  </si>
-  <si>
-    <t>Trim-IV-2018</t>
-  </si>
-  <si>
-    <t>Trim-III-2018</t>
-  </si>
-  <si>
-    <t>Trim-II-2018</t>
-  </si>
-  <si>
-    <t>Trim-I-2018</t>
+    <t>Actualización: agosto 2024.</t>
   </si>
 </sst>
 </file>
@@ -186,7 +111,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,8 +130,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -269,12 +200,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -292,18 +243,37 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -546,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:E36"/>
+  <dimension ref="B2:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -555,256 +525,350 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="11.19921875" customWidth="1"/>
-    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.8984375" customWidth="1"/>
+    <col min="3" max="3" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B5" s="14">
+        <v>2024</v>
+      </c>
+      <c r="C5" s="15">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>25708480.030000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B6" s="16">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="17">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8">
+        <v>24674810.721000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B7" s="18">
+        <v>2023</v>
+      </c>
+      <c r="C7" s="15">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7">
+        <v>25589859.000999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B8" s="16">
+        <v>2023</v>
+      </c>
+      <c r="C8" s="17">
+        <v>3</v>
+      </c>
+      <c r="D8" s="8">
+        <v>25107696.155999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B9" s="18">
+        <v>2023</v>
+      </c>
+      <c r="C9" s="15">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>25182649.592999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B10" s="16">
+        <v>2023</v>
+      </c>
+      <c r="C10" s="17">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8">
+        <v>24299159.754000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B11" s="18">
+        <v>2022</v>
+      </c>
+      <c r="C11" s="15">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7">
+        <v>25011647.543000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B12" s="16">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="17">
+        <v>3</v>
+      </c>
+      <c r="D12" s="8">
+        <v>24284767.879999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B13" s="18">
+        <v>2022</v>
+      </c>
+      <c r="C13" s="15">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>24320625.657000002</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="16">
+        <v>2022</v>
+      </c>
+      <c r="C14" s="17">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8">
+        <v>23456004.254000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B15" s="18">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="15">
+        <v>4</v>
+      </c>
+      <c r="D15" s="7">
+        <v>23957834.967</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B16" s="16">
+        <v>2021</v>
+      </c>
+      <c r="C16" s="17">
+        <v>3</v>
+      </c>
+      <c r="D16" s="8">
+        <v>23205162.859000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="18">
+        <v>2021</v>
+      </c>
+      <c r="C17" s="15">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>23619437.004000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18" s="16">
+        <v>2021</v>
+      </c>
+      <c r="C18" s="17">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8">
+        <v>22836889.620000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" s="18">
+        <v>2020</v>
+      </c>
+      <c r="C19" s="15">
+        <v>4</v>
+      </c>
+      <c r="D19" s="7">
+        <v>23502642.418000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" s="16">
+        <v>2020</v>
+      </c>
+      <c r="C20" s="17">
+        <v>3</v>
+      </c>
+      <c r="D20" s="8">
+        <v>22072323.524</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21" s="18">
+        <v>2020</v>
+      </c>
+      <c r="C21" s="15">
+        <v>2</v>
+      </c>
+      <c r="D21" s="7">
+        <v>19253473.965</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B22" s="16">
+        <v>2020</v>
+      </c>
+      <c r="C22" s="17">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8">
+        <v>23451299.144000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C23" s="15">
+        <v>4</v>
+      </c>
+      <c r="D23" s="7">
+        <v>24357268.304000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B24" s="16">
+        <v>2019</v>
+      </c>
+      <c r="C24" s="17">
+        <v>3</v>
+      </c>
+      <c r="D24" s="8">
+        <v>24024913.491</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B25" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C25" s="15">
+        <v>2</v>
+      </c>
+      <c r="D25" s="7">
+        <v>24154482.009</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B26" s="16">
+        <v>2019</v>
+      </c>
+      <c r="C26" s="17">
+        <v>1</v>
+      </c>
+      <c r="D26" s="8">
+        <v>23790259.728</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B27" s="18">
+        <v>2018</v>
+      </c>
+      <c r="C27" s="15">
+        <v>4</v>
+      </c>
+      <c r="D27" s="7">
+        <v>24605114.693</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B28" s="16">
+        <v>2018</v>
+      </c>
+      <c r="C28" s="17">
+        <v>3</v>
+      </c>
+      <c r="D28" s="8">
+        <v>24137286.447000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B29" s="18">
+        <v>2018</v>
+      </c>
+      <c r="C29" s="15">
+        <v>2</v>
+      </c>
+      <c r="D29" s="7">
+        <v>24395810.578000002</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B30" s="19">
+        <v>2018</v>
+      </c>
+      <c r="C30" s="20">
+        <v>1</v>
+      </c>
+      <c r="D30" s="10">
+        <v>23568469.787</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B31" s="13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B4" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="7">
-        <v>24688768.486000001</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="8">
-        <v>25589859.000999998</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="7">
-        <v>25107696.155999999</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="8">
-        <v>25182649.592999998</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="7">
-        <v>24299159.754000001</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="8">
-        <v>25011647.543000001</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="7">
-        <v>24284767.879999999</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="8">
-        <v>24320625.657000002</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="7">
-        <v>23456004.254000001</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="8">
-        <v>23957834.967</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="7">
-        <v>23205162.859000001</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B16" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="8">
-        <v>23619437.004000001</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B17" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="7">
-        <v>22836889.620000001</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B18" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="8">
-        <v>23502642.418000001</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="7">
-        <v>22072323.524</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B20" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="8">
-        <v>19253473.965</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B21" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="7">
-        <v>23451299.144000001</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B22" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="8">
-        <v>24357268.304000001</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B23" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="7">
-        <v>24024913.491</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B24" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="8">
-        <v>24154482.009</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B25" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="7">
-        <v>23790259.728</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B26" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="8">
-        <v>24605114.693</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B27" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="7">
-        <v>24137286.447000001</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B28" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="8">
-        <v>24395810.578000002</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B29" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="9">
-        <v>23568469.787</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B31" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C32" s="6" t="s">
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B33" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C33" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="C33" s="5"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D35" s="6"/>
+    </row>
+    <row r="37" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/PIB_Nacional.xlsx
+++ b/PIB_Nacional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEEFE13-9005-4485-8044-483EA1587024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C73C39-7723-490C-A0FD-9376BAFC9D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -558,7 +558,7 @@
         <v>2024</v>
       </c>
       <c r="C5" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
         <v>25708480.030000001</v>
@@ -569,7 +569,7 @@
         <v>2024</v>
       </c>
       <c r="C6" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="8">
         <v>24674810.721000001</v>

--- a/PIB_Nacional.xlsx
+++ b/PIB_Nacional.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C73C39-7723-490C-A0FD-9376BAFC9D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAC9AC5-3B75-420F-B3FE-DD55DC48EA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_1.1" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,6 @@
     <t>Fuente: INEGI. Banco de Información Económica (BIE). Producto Interno Bruto. En: www.inegi.org.mx.</t>
   </si>
   <si>
-    <t>Nota: Cifras actualizadas a pecios de 2018=100.</t>
-  </si>
-  <si>
     <t>(Millones de pesos anulizados  a precios de 2018)</t>
   </si>
   <si>
@@ -60,6 +57,9 @@
   </si>
   <si>
     <t>Actualización: agosto 2024.</t>
+  </si>
+  <si>
+    <t>Nota: Cifras actualizadas a precios de 2018=100.</t>
   </si>
 </sst>
 </file>
@@ -538,16 +538,16 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>0</v>
@@ -841,14 +841,14 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B31" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="12"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>

--- a/PIB_Nacional.xlsx
+++ b/PIB_Nacional.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAC9AC5-3B75-420F-B3FE-DD55DC48EA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C13D913-0E22-4657-B60A-94E666645769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_1.1" sheetId="1" r:id="rId1"/>
@@ -38,16 +38,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Pruducto Interno Bruto</t>
-  </si>
-  <si>
     <t>Producto Interno Bruto Nacional</t>
   </si>
   <si>
     <t>Fuente: INEGI. Banco de Información Económica (BIE). Producto Interno Bruto. En: www.inegi.org.mx.</t>
-  </si>
-  <si>
-    <t>(Millones de pesos anulizados  a precios de 2018)</t>
   </si>
   <si>
     <t>Trimestre</t>
@@ -60,6 +54,12 @@
   </si>
   <si>
     <t>Nota: Cifras actualizadas a precios de 2018=100.</t>
+  </si>
+  <si>
+    <t>(Millones de pesos anualizados  a precios de 2018)</t>
+  </si>
+  <si>
+    <t>Producto Interno Bruto</t>
   </si>
 </sst>
 </file>
@@ -532,25 +532,25 @@
   <sheetData>
     <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
@@ -841,21 +841,21 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B31" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="12"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B33" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" s="5"/>
     </row>

--- a/PIB_Nacional.xlsx
+++ b/PIB_Nacional.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C13D913-0E22-4657-B60A-94E666645769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CDA822-46D6-49D7-8045-7603C4488429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>Año</t>
   </si>
   <si>
-    <t>Actualización: agosto 2024.</t>
-  </si>
-  <si>
     <t>Nota: Cifras actualizadas a precios de 2018=100.</t>
   </si>
   <si>
@@ -60,6 +57,9 @@
   </si>
   <si>
     <t>Producto Interno Bruto</t>
+  </si>
+  <si>
+    <t>Actualización: agosto 2024.</t>
   </si>
 </sst>
 </file>
@@ -538,7 +538,7 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -550,7 +550,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
@@ -841,14 +841,14 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B31" s="13" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="12"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>

--- a/PIB_Nacional.xlsx
+++ b/PIB_Nacional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CDA822-46D6-49D7-8045-7603C4488429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDAE072-3F94-4595-9682-B5D4599943CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -59,7 +59,7 @@
     <t>Producto Interno Bruto</t>
   </si>
   <si>
-    <t>Actualización: agosto 2024.</t>
+    <t>Actualización: Octubre 2024.</t>
   </si>
 </sst>
 </file>
@@ -69,46 +69,61 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Geomanist"/>
+      <family val="3"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Geomanist"/>
+      <family val="3"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="5">
@@ -126,13 +141,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -213,7 +228,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -225,7 +242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -243,20 +260,14 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -269,11 +280,23 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -296,7 +319,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="INSTITUCIONAL">
+    <a:clrScheme name="Personalizado 1">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -304,28 +327,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="9F2241"/>
+        <a:srgbClr val="611232"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BC955C"/>
+        <a:srgbClr val="C39326"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="235B4E"/>
+        <a:srgbClr val="806B4A"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="98989A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="DDC9A3"/>
+        <a:srgbClr val="E6D194"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="691C32"/>
+        <a:srgbClr val="9B2247"/>
       </a:accent4>
       <a:accent5>
         <a:srgbClr val="6F7271"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="10312B"/>
+        <a:srgbClr val="7E664A"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="4E4E4E"/>
@@ -334,14 +357,14 @@
         <a:srgbClr val="808080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="INSTITUCIONAL">
+    <a:fontScheme name="Personalizado 1">
       <a:majorFont>
-        <a:latin typeface="Montserrat"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Montserrat Medium"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -516,359 +539,370 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:F38"/>
+  <dimension ref="B2:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="7.8984375" customWidth="1"/>
-    <col min="3" max="3" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="7.875" customWidth="1"/>
+    <col min="3" max="3" width="8.125" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="14">
         <v>2024</v>
       </c>
       <c r="C5" s="15">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7">
-        <v>25708480.030000001</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="D5" s="8">
+        <v>25563567.284000002</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="16">
         <v>2024</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="13">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>25711102.669</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="14">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="15">
         <v>1</v>
       </c>
-      <c r="D6" s="8">
-        <v>24674810.721000001</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="18">
-        <v>2023</v>
-      </c>
-      <c r="C7" s="15">
-        <v>4</v>
-      </c>
-      <c r="D7" s="7">
-        <v>25589859.000999998</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D7" s="8">
+        <v>24691850.756999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="16">
         <v>2023</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="13">
+        <v>4</v>
+      </c>
+      <c r="D8" s="7">
+        <v>25658937.302999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="14">
+        <v>2023</v>
+      </c>
+      <c r="C9" s="15">
         <v>3</v>
       </c>
-      <c r="D8" s="8">
-        <v>25107696.155999999</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="18">
-        <v>2023</v>
-      </c>
-      <c r="C9" s="15">
-        <v>2</v>
-      </c>
-      <c r="D9" s="7">
-        <v>25182649.592999998</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D9" s="8">
+        <v>25149312.796</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="16">
         <v>2023</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="13">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>25145892.730999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="14">
+        <v>2023</v>
+      </c>
+      <c r="C11" s="15">
         <v>1</v>
       </c>
-      <c r="D10" s="8">
-        <v>24299159.754000001</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="18">
-        <v>2022</v>
-      </c>
-      <c r="C11" s="15">
-        <v>4</v>
-      </c>
-      <c r="D11" s="7">
-        <v>25011647.543000001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D11" s="8">
+        <v>24338995.708000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="16">
         <v>2022</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="13">
+        <v>4</v>
+      </c>
+      <c r="D12" s="7">
+        <v>25048659.581</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="14">
+        <v>2022</v>
+      </c>
+      <c r="C13" s="15">
         <v>3</v>
       </c>
-      <c r="D12" s="8">
-        <v>24284767.879999999</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="18">
-        <v>2022</v>
-      </c>
-      <c r="C13" s="15">
-        <v>2</v>
-      </c>
-      <c r="D13" s="7">
-        <v>24320625.657000002</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D13" s="8">
+        <v>24289461.033</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="16">
         <v>2022</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="13">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>24311365.434999999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="14">
+        <v>2022</v>
+      </c>
+      <c r="C15" s="15">
         <v>1</v>
       </c>
-      <c r="D14" s="8">
-        <v>23456004.254000001</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="18">
-        <v>2021</v>
-      </c>
-      <c r="C15" s="15">
-        <v>4</v>
-      </c>
-      <c r="D15" s="7">
-        <v>23957834.967</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D15" s="8">
+        <v>23444041.175999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="16">
         <v>2021</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="13">
+        <v>4</v>
+      </c>
+      <c r="D16" s="7">
+        <v>23957834.967</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="14">
+        <v>2021</v>
+      </c>
+      <c r="C17" s="15">
         <v>3</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D17" s="8">
         <v>23205162.859000001</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="18">
-        <v>2021</v>
-      </c>
-      <c r="C17" s="15">
-        <v>2</v>
-      </c>
-      <c r="D17" s="7">
-        <v>23619437.004000001</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="16">
         <v>2021</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="13">
+        <v>2</v>
+      </c>
+      <c r="D18" s="7">
+        <v>23619437.004000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="14">
+        <v>2021</v>
+      </c>
+      <c r="C19" s="15">
         <v>1</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D19" s="8">
         <v>22836889.620000001</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="18">
-        <v>2020</v>
-      </c>
-      <c r="C19" s="15">
-        <v>4</v>
-      </c>
-      <c r="D19" s="7">
-        <v>23502642.418000001</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="16">
         <v>2020</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="13">
+        <v>4</v>
+      </c>
+      <c r="D20" s="7">
+        <v>23502642.418000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="14">
+        <v>2020</v>
+      </c>
+      <c r="C21" s="15">
         <v>3</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D21" s="8">
         <v>22072323.524</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="18">
-        <v>2020</v>
-      </c>
-      <c r="C21" s="15">
-        <v>2</v>
-      </c>
-      <c r="D21" s="7">
-        <v>19253473.965</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="16">
         <v>2020</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="13">
+        <v>2</v>
+      </c>
+      <c r="D22" s="7">
+        <v>19253473.965</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="14">
+        <v>2020</v>
+      </c>
+      <c r="C23" s="15">
         <v>1</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D23" s="8">
         <v>23451299.144000001</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" s="18">
-        <v>2019</v>
-      </c>
-      <c r="C23" s="15">
-        <v>4</v>
-      </c>
-      <c r="D23" s="7">
-        <v>24357268.304000001</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="16">
         <v>2019</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="13">
+        <v>4</v>
+      </c>
+      <c r="D24" s="7">
+        <v>24357268.304000001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="14">
+        <v>2019</v>
+      </c>
+      <c r="C25" s="15">
         <v>3</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D25" s="8">
         <v>24024913.491</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="18">
-        <v>2019</v>
-      </c>
-      <c r="C25" s="15">
-        <v>2</v>
-      </c>
-      <c r="D25" s="7">
-        <v>24154482.009</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="16">
         <v>2019</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="13">
+        <v>2</v>
+      </c>
+      <c r="D26" s="7">
+        <v>24154482.009</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="14">
+        <v>2019</v>
+      </c>
+      <c r="C27" s="15">
         <v>1</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D27" s="8">
         <v>23790259.728</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="18">
-        <v>2018</v>
-      </c>
-      <c r="C27" s="15">
-        <v>4</v>
-      </c>
-      <c r="D27" s="7">
-        <v>24605114.693</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="16">
         <v>2018</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="13">
+        <v>4</v>
+      </c>
+      <c r="D28" s="7">
+        <v>24605114.693</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="14">
+        <v>2018</v>
+      </c>
+      <c r="C29" s="15">
         <v>3</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D29" s="8">
         <v>24137286.447000001</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="18">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="16">
         <v>2018</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C30" s="13">
         <v>2</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D30" s="7">
         <v>24395810.578000002</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B30" s="19">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="17">
         <v>2018</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C31" s="18">
         <v>1</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D31" s="9">
         <v>23568469.787</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="13" t="s">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="10"/>
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B33" s="5" t="s">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="D35" s="6"/>
-    </row>
-    <row r="37" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D36" s="6"/>
+    </row>
+    <row r="38" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/PIB_Nacional.xlsx
+++ b/PIB_Nacional.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDAE072-3F94-4595-9682-B5D4599943CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC273C62-773D-450C-AEDA-3F3C4CDFAB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -59,7 +59,7 @@
     <t>Producto Interno Bruto</t>
   </si>
   <si>
-    <t>Actualización: Octubre 2024.</t>
+    <t>Actualización: Noviembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -69,26 +69,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
@@ -104,26 +91,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Geomanist"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Geomanist"/>
-      <family val="3"/>
-      <scheme val="major"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Geomanist"/>
-      <family val="3"/>
-      <scheme val="major"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -240,63 +227,57 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -545,367 +526,367 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="7.875" customWidth="1"/>
-    <col min="3" max="3" width="8.125" customWidth="1"/>
-    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="1" max="1" width="5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.5" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+    <row r="2" spans="2:4" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="14">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="6">
         <v>2024</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="7">
         <v>3</v>
       </c>
       <c r="D5" s="8">
         <v>25563567.284000002</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="16">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="9">
         <v>2024</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="10">
         <v>2</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="11">
         <v>25711102.669</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="14">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B7" s="6">
         <v>2024</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="7">
         <v>1</v>
       </c>
       <c r="D7" s="8">
         <v>24691850.756999999</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="16">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B8" s="9">
         <v>2023</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="10">
         <v>4</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="11">
         <v>25658937.302999999</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="14">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B9" s="6">
         <v>2023</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="7">
         <v>3</v>
       </c>
       <c r="D9" s="8">
         <v>25149312.796</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="16">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B10" s="9">
         <v>2023</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="10">
         <v>2</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="11">
         <v>25145892.730999999</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="14">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B11" s="6">
         <v>2023</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="7">
         <v>1</v>
       </c>
       <c r="D11" s="8">
         <v>24338995.708000001</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="16">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B12" s="9">
         <v>2022</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="10">
         <v>4</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="11">
         <v>25048659.581</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="14">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B13" s="6">
         <v>2022</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="7">
         <v>3</v>
       </c>
       <c r="D13" s="8">
         <v>24289461.033</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="16">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B14" s="9">
         <v>2022</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="10">
         <v>2</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="11">
         <v>24311365.434999999</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="14">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B15" s="6">
         <v>2022</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="7">
         <v>1</v>
       </c>
       <c r="D15" s="8">
         <v>23444041.175999999</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="16">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B16" s="9">
         <v>2021</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="10">
         <v>4</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="11">
         <v>23957834.967</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="14">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B17" s="6">
         <v>2021</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="7">
         <v>3</v>
       </c>
       <c r="D17" s="8">
         <v>23205162.859000001</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="16">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B18" s="9">
         <v>2021</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="10">
         <v>2</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="11">
         <v>23619437.004000001</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="14">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B19" s="6">
         <v>2021</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="7">
         <v>1</v>
       </c>
       <c r="D19" s="8">
         <v>22836889.620000001</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="16">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B20" s="9">
         <v>2020</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="10">
         <v>4</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="11">
         <v>23502642.418000001</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="14">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B21" s="6">
         <v>2020</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="7">
         <v>3</v>
       </c>
       <c r="D21" s="8">
         <v>22072323.524</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="16">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B22" s="9">
         <v>2020</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="10">
         <v>2</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="11">
         <v>19253473.965</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="14">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B23" s="6">
         <v>2020</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="7">
         <v>1</v>
       </c>
       <c r="D23" s="8">
         <v>23451299.144000001</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="16">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B24" s="9">
         <v>2019</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="10">
         <v>4</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="11">
         <v>24357268.304000001</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="14">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B25" s="6">
         <v>2019</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="7">
         <v>3</v>
       </c>
       <c r="D25" s="8">
         <v>24024913.491</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="16">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B26" s="9">
         <v>2019</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="10">
         <v>2</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="11">
         <v>24154482.009</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="14">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B27" s="6">
         <v>2019</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="7">
         <v>1</v>
       </c>
       <c r="D27" s="8">
         <v>23790259.728</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="16">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B28" s="9">
         <v>2018</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="10">
         <v>4</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="11">
         <v>24605114.693</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="14">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B29" s="6">
         <v>2018</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="7">
         <v>3</v>
       </c>
       <c r="D29" s="8">
         <v>24137286.447000001</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="16">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B30" s="9">
         <v>2018</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="10">
         <v>2</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="11">
         <v>24395810.578000002</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="17">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B31" s="12">
         <v>2018</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="13">
         <v>1</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="14">
         <v>23568469.787</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="12" t="s">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B32" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
+      <c r="C32" s="16"/>
+      <c r="D32" s="17"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B33" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="5" t="s">
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B34" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D36" s="6"/>
-    </row>
-    <row r="38" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D36" s="19"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PIB_Nacional.xlsx
+++ b/PIB_Nacional.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC273C62-773D-450C-AEDA-3F3C4CDFAB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7D2470-6D5F-4E5C-8BC3-07EDEDDB6FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_1.1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
     <t>Producto Interno Bruto</t>
   </si>
   <si>
-    <t>Actualización: Noviembre 2024.</t>
+    <t>Actualización: Enero 2025.</t>
   </si>
 </sst>
 </file>
@@ -139,7 +139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -211,25 +211,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -237,9 +224,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -520,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:F39"/>
+  <dimension ref="B2:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -551,339 +535,350 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B5" s="6">
+      <c r="B5" s="8">
         <v>2024</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="9">
+        <v>4</v>
+      </c>
+      <c r="D5" s="10">
+        <v>25780946.515000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="5">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="6">
         <v>3</v>
       </c>
-      <c r="D5" s="8">
-        <v>25563567.284000002</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B6" s="9">
+      <c r="D6" s="7">
+        <v>25568565.942000002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B7" s="8">
         <v>2024</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C7" s="9">
         <v>2</v>
       </c>
-      <c r="D6" s="11">
-        <v>25711102.669</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B7" s="6">
+      <c r="D7" s="10">
+        <v>25708128.594000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B8" s="5">
         <v>2024</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C8" s="6">
         <v>1</v>
       </c>
-      <c r="D7" s="8">
-        <v>24691850.756999999</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B8" s="9">
+      <c r="D8" s="7">
+        <v>24693822.385000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B9" s="8">
         <v>2023</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C9" s="9">
         <v>4</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D9" s="10">
         <v>25658937.302999999</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B9" s="6">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B10" s="5">
         <v>2023</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C10" s="6">
         <v>3</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D10" s="7">
         <v>25149312.796</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B10" s="9">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B11" s="8">
         <v>2023</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C11" s="9">
         <v>2</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D11" s="10">
         <v>25145892.730999999</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B11" s="6">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B12" s="5">
         <v>2023</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C12" s="6">
         <v>1</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D12" s="7">
         <v>24338995.708000001</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B12" s="9">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B13" s="8">
         <v>2022</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C13" s="9">
         <v>4</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D13" s="10">
         <v>25048659.581</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B13" s="6">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B14" s="5">
         <v>2022</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C14" s="6">
         <v>3</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D14" s="7">
         <v>24289461.033</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B14" s="9">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B15" s="8">
         <v>2022</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C15" s="9">
         <v>2</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D15" s="10">
         <v>24311365.434999999</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B15" s="6">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B16" s="5">
         <v>2022</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C16" s="6">
         <v>1</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D16" s="7">
         <v>23444041.175999999</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B16" s="9">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B17" s="8">
         <v>2021</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C17" s="9">
         <v>4</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D17" s="10">
         <v>23957834.967</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B17" s="6">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B18" s="5">
         <v>2021</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C18" s="6">
         <v>3</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D18" s="7">
         <v>23205162.859000001</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B18" s="9">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B19" s="8">
         <v>2021</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C19" s="9">
         <v>2</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D19" s="10">
         <v>23619437.004000001</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B19" s="6">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B20" s="5">
         <v>2021</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C20" s="6">
         <v>1</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D20" s="7">
         <v>22836889.620000001</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B20" s="9">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B21" s="8">
         <v>2020</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C21" s="9">
         <v>4</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D21" s="10">
         <v>23502642.418000001</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B21" s="6">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B22" s="5">
         <v>2020</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C22" s="6">
         <v>3</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D22" s="7">
         <v>22072323.524</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B22" s="9">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B23" s="8">
         <v>2020</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C23" s="9">
         <v>2</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D23" s="10">
         <v>19253473.965</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B23" s="6">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B24" s="5">
         <v>2020</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C24" s="6">
         <v>1</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D24" s="7">
         <v>23451299.144000001</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B24" s="9">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B25" s="8">
         <v>2019</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C25" s="9">
         <v>4</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D25" s="10">
         <v>24357268.304000001</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B25" s="6">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B26" s="5">
         <v>2019</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C26" s="6">
         <v>3</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D26" s="7">
         <v>24024913.491</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B26" s="9">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B27" s="8">
         <v>2019</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C27" s="9">
         <v>2</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D27" s="10">
         <v>24154482.009</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B27" s="6">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B28" s="5">
         <v>2019</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C28" s="6">
         <v>1</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D28" s="7">
         <v>23790259.728</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B28" s="9">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B29" s="8">
         <v>2018</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C29" s="9">
         <v>4</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D29" s="10">
         <v>24605114.693</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B29" s="6">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B30" s="5">
         <v>2018</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C30" s="6">
         <v>3</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D30" s="7">
         <v>24137286.447000001</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B30" s="9">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B31" s="8">
         <v>2018</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C31" s="9">
         <v>2</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D31" s="10">
         <v>24395810.578000002</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B31" s="12">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B32" s="11">
         <v>2018</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C32" s="12">
         <v>1</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D32" s="13">
         <v>23568469.787</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B32" s="15" t="s">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B33" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="17"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B33" s="18" t="s">
+      <c r="C33" s="15"/>
+      <c r="D33" s="16"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B34" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B35" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="D36" s="19"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D37" s="18"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/PIB_Nacional.xlsx
+++ b/PIB_Nacional.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7D2470-6D5F-4E5C-8BC3-07EDEDDB6FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9A9B53-61FA-4736-A09E-FBB917B034D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_1.1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
     <t>Producto Interno Bruto</t>
   </si>
   <si>
-    <t>Actualización: Enero 2025.</t>
+    <t>Actualización: Abril 2025.</t>
   </si>
 </sst>
 </file>
@@ -69,7 +69,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,7 +216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -255,7 +255,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -504,13 +503,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:F40"/>
+  <dimension ref="B2:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="2" customWidth="1"/>
@@ -519,19 +518,19 @@
     <col min="5" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:4" ht="18">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:4">
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:4">
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
@@ -542,343 +541,353 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B5" s="8">
+    <row r="5" spans="2:4">
+      <c r="B5" s="5">
+        <v>2025</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>24919257.442000002</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="8">
         <v>2024</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C6" s="9">
         <v>4</v>
       </c>
-      <c r="D5" s="10">
-        <v>25780946.515000001</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B6" s="5">
+      <c r="D6" s="10">
+        <v>25767095.723999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="5">
         <v>2024</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C7" s="6">
         <v>3</v>
       </c>
-      <c r="D6" s="7">
-        <v>25568565.942000002</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B7" s="8">
+      <c r="D7" s="7">
+        <v>25574159.182999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="8">
         <v>2024</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C8" s="9">
         <v>2</v>
       </c>
-      <c r="D7" s="10">
-        <v>25708128.594000001</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B8" s="5">
+      <c r="D8" s="10">
+        <v>25717865.355999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="5">
         <v>2024</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C9" s="6">
         <v>1</v>
       </c>
-      <c r="D8" s="7">
-        <v>24693822.385000002</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B9" s="8">
+      <c r="D9" s="7">
+        <v>24721687.629000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="8">
         <v>2023</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C10" s="9">
         <v>4</v>
       </c>
-      <c r="D9" s="10">
-        <v>25658937.302999999</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B10" s="5">
+      <c r="D10" s="10">
+        <v>25675317.333999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="5">
         <v>2023</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C11" s="6">
         <v>3</v>
       </c>
-      <c r="D10" s="7">
-        <v>25149312.796</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B11" s="8">
+      <c r="D11" s="7">
+        <v>25166520.574999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="8">
         <v>2023</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C12" s="9">
         <v>2</v>
       </c>
-      <c r="D11" s="10">
-        <v>25145892.730999999</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B12" s="5">
+      <c r="D12" s="10">
+        <v>25155913.813999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="5">
         <v>2023</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C13" s="6">
         <v>1</v>
       </c>
-      <c r="D12" s="7">
-        <v>24338995.708000001</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B13" s="8">
+      <c r="D13" s="7">
+        <v>24350655.221999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="8">
         <v>2022</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C14" s="9">
         <v>4</v>
       </c>
-      <c r="D13" s="10">
-        <v>25048659.581</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B14" s="5">
+      <c r="D14" s="10">
+        <v>25052440.725000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="5">
         <v>2022</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C15" s="6">
         <v>3</v>
       </c>
-      <c r="D14" s="7">
-        <v>24289461.033</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B15" s="8">
+      <c r="D15" s="7">
+        <v>24288808.425000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="8">
         <v>2022</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C16" s="9">
         <v>2</v>
       </c>
-      <c r="D15" s="10">
-        <v>24311365.434999999</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B16" s="5">
+      <c r="D16" s="10">
+        <v>24309483.673999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="5">
         <v>2022</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C17" s="6">
         <v>1</v>
       </c>
-      <c r="D16" s="7">
-        <v>23444041.175999999</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B17" s="8">
+      <c r="D17" s="7">
+        <v>23441641.157000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="8">
         <v>2021</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C18" s="9">
         <v>4</v>
       </c>
-      <c r="D17" s="10">
-        <v>23957834.967</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B18" s="5">
+      <c r="D18" s="10">
+        <v>23949669.824000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="5">
         <v>2021</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C19" s="6">
         <v>3</v>
       </c>
-      <c r="D18" s="7">
-        <v>23205162.859000001</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B19" s="8">
+      <c r="D19" s="7">
+        <v>23204689.857999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="8">
         <v>2021</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C20" s="9">
         <v>2</v>
       </c>
-      <c r="D19" s="10">
-        <v>23619437.004000001</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B20" s="5">
+      <c r="D20" s="10">
+        <v>23623591.379999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="5">
         <v>2021</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C21" s="6">
         <v>1</v>
       </c>
-      <c r="D20" s="7">
-        <v>22836889.620000001</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B21" s="8">
+      <c r="D21" s="7">
+        <v>22841373.390000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="8">
         <v>2020</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C22" s="9">
         <v>4</v>
       </c>
-      <c r="D21" s="10">
-        <v>23502642.418000001</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B22" s="5">
+      <c r="D22" s="10">
+        <v>23504813.158</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="5">
         <v>2020</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C23" s="6">
         <v>3</v>
       </c>
-      <c r="D22" s="7">
-        <v>22072323.524</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B23" s="8">
+      <c r="D23" s="7">
+        <v>22072295.697000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="8">
         <v>2020</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C24" s="9">
         <v>2</v>
       </c>
-      <c r="D23" s="10">
-        <v>19253473.965</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B24" s="5">
+      <c r="D24" s="10">
+        <v>19252778.618000001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="5">
         <v>2020</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C25" s="6">
         <v>1</v>
       </c>
-      <c r="D24" s="7">
-        <v>23451299.144000001</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B25" s="8">
+      <c r="D25" s="7">
+        <v>23449851.563000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="8">
         <v>2019</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C26" s="9">
         <v>4</v>
       </c>
-      <c r="D25" s="10">
-        <v>24357268.304000001</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B26" s="5">
+      <c r="D26" s="10">
+        <v>24356533.570999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="5">
         <v>2019</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C27" s="6">
         <v>3</v>
       </c>
-      <c r="D26" s="7">
-        <v>24024913.491</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B27" s="8">
+      <c r="D27" s="7">
+        <v>24024898.625</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="8">
         <v>2019</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C28" s="9">
         <v>2</v>
       </c>
-      <c r="D27" s="10">
-        <v>24154482.009</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B28" s="5">
+      <c r="D28" s="10">
+        <v>24154852.039000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="5">
         <v>2019</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C29" s="6">
         <v>1</v>
       </c>
-      <c r="D28" s="7">
-        <v>23790259.728</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B29" s="8">
+      <c r="D29" s="7">
+        <v>23790639.304000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="8">
         <v>2018</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C30" s="9">
         <v>4</v>
       </c>
-      <c r="D29" s="10">
-        <v>24605114.693</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B30" s="5">
+      <c r="D30" s="10">
+        <v>24605294.572000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="5">
         <v>2018</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C31" s="6">
         <v>3</v>
       </c>
-      <c r="D30" s="7">
-        <v>24137286.447000001</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B31" s="8">
+      <c r="D31" s="7">
+        <v>24137288.445</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="8">
         <v>2018</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C32" s="9">
         <v>2</v>
       </c>
-      <c r="D31" s="10">
-        <v>24395810.578000002</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B32" s="11">
+      <c r="D32" s="10">
+        <v>24395720.482000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="11">
         <v>2018</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C33" s="12">
         <v>1</v>
       </c>
-      <c r="D32" s="13">
-        <v>23568469.787</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B33" s="14" t="s">
+      <c r="D33" s="13">
+        <v>23568377.991</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="16"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B34" s="17" t="s">
+      <c r="C34" s="15"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="D37" s="18"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
+    <row r="38" spans="2:6">
+      <c r="D38" s="17"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
